--- a/AAA-Luban-Excel/Datas/func_inspection.xlsx
+++ b/AAA-Luban-Excel/Datas/func_inspection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17340" windowHeight="10380"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -123,6 +123,17 @@
   </si>
   <si>
     <t>“刻字.png”</t>
+  </si>
+  <si>
+    <t>策划的备忘</t>
+  </si>
+  <si>
+    <t>打开检视界面时
+典藏版：用统一的音效
+豪华版：每类物品单独配一个查看音效，且不同角色在检视界面的文本略有差异</t>
+  </si>
+  <si>
+    <t>“不用管这一条”</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1081,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1206,6 +1217,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" ht="85" customHeight="1" spans="2:5">
+      <c r="B9" s="1">
+        <v>920005</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="13" spans="4:4">
       <c r="D13" s="5"/>
     </row>

--- a/AAA-Luban-Excel/Datas/func_inspection.xlsx
+++ b/AAA-Luban-Excel/Datas/func_inspection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC3AE7D-0793-444B-972E-70CF5D3B69AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E45FBE-1068-4554-8FB9-6B3882F0EA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Sprite_Inspection_Book</t>
+  </si>
+  <si>
+    <t>InteracteTime</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>需要持续按下交互键时间？0 为立即交互</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -462,9 +471,10 @@
     <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="58" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -480,8 +490,11 @@
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -497,8 +510,11 @@
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -514,8 +530,11 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -531,8 +550,11 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="1">
         <v>920001</v>
       </c>
@@ -546,7 +568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="360">
+    <row r="6" spans="1:6" ht="360">
       <c r="B6" s="1">
         <v>920002</v>
       </c>
@@ -559,8 +581,11 @@
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="285">
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="285">
       <c r="B7" s="1">
         <v>920003</v>
       </c>
@@ -573,8 +598,11 @@
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="78" customHeight="1">
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="78" customHeight="1">
       <c r="B8" s="1">
         <v>920004</v>
       </c>
@@ -587,8 +615,11 @@
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="84.95" customHeight="1">
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="84.95" customHeight="1">
       <c r="B9" s="1">
         <v>920005</v>
       </c>
@@ -601,8 +632,11 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="D13" s="5"/>
     </row>
   </sheetData>
